--- a/Data/ClueLayoutColored.xlsx
+++ b/Data/ClueLayoutColored.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da3873474e39d809/Desktop/ClueGame/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="8_{10C72155-1E25-4505-BAD9-74605B4415FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3332EEBE-E2B6-4B36-9A16-F5AFEBBF5518}"/>
+  <xr:revisionPtr revIDLastSave="466" documentId="8_{10C72155-1E25-4505-BAD9-74605B4415FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C679A54-B371-4953-8C5D-46AABE289F30}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{61EB29D2-5BBF-4C24-8184-1513E291ED5C}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{61EB29D2-5BBF-4C24-8184-1513E291ED5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium Board" sheetId="1" r:id="rId1"/>
     <sheet name="Medium Board Export" sheetId="3" r:id="rId2"/>
-    <sheet name="Small Board" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="47">
   <si>
     <t>A</t>
   </si>
@@ -173,13 +172,19 @@
   </si>
   <si>
     <t>Red - Test Occupied</t>
+  </si>
+  <si>
+    <t>D*</t>
+  </si>
+  <si>
+    <t>H*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,8 +192,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,12 +232,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -249,6 +254,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -262,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,20 +305,48 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -305,6 +362,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647A6E94-35CE-47C0-8BFB-0D328AC3C2AF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:N16"/>
     </sheetView>
   </sheetViews>
@@ -1365,701 +1426,903 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BD2320-D59C-4FE3-962A-D194E7A3AA69}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="15" max="15" width="54" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" customWidth="1"/>
+    <col min="16" max="16" width="44.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="O1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="P2" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
+    <row r="4" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="K5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="M5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="N5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="P8" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
+      <c r="I13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>13</v>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="N14" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="E15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="E16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N16" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBDFCBA-583A-413B-B5F6-E3B954BC3BA7}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="20"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/ClueLayoutColored.xlsx
+++ b/Data/ClueLayoutColored.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da3873474e39d809/Desktop/ClueGame/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec2c82c9f3cbf5bf/Documents/GitHub/ClueGame/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="466" documentId="8_{10C72155-1E25-4505-BAD9-74605B4415FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C679A54-B371-4953-8C5D-46AABE289F30}"/>
+  <xr:revisionPtr revIDLastSave="468" documentId="8_{10C72155-1E25-4505-BAD9-74605B4415FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EA4CC3A-8400-469C-B685-88B0BC8F4CF6}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{61EB29D2-5BBF-4C24-8184-1513E291ED5C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{61EB29D2-5BBF-4C24-8184-1513E291ED5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium Board" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -346,7 +346,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,10 +361,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647A6E94-35CE-47C0-8BFB-0D328AC3C2AF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -971,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -1001,7 +996,7 @@
         <v>3</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>3</v>
@@ -1426,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BD2320-D59C-4FE3-962A-D194E7A3AA69}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2160,169 +2155,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="20"/>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C20" s="14"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
